--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>8650000</v>
+        <v>9335000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-3350000</v>
+        <v>-4035000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>9335000</v>
+        <v>16537000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>-4035000</v>
+        <v>21413000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>5300000</v>
+        <v>37950000</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>4500000</v>
+        <v>34650000</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="AK5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>800000</v>
+        <v>3300000</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>4500000</v>
+        <v>38150000</v>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>16537000</v>
+        <v>16617000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>21413000</v>
+        <v>21333000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>16617000</v>
+        <v>17134000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>21333000</v>
+        <v>20816000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>20816000</v>
+        <v>22816000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>37950000</v>
+        <v>39950000</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>34650000</v>
+        <v>36650000</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>38150000</v>
+        <v>40150000</v>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_THANG_LONG_XUYEN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>22816000</v>
+        <v>27816000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>39950000</v>
+        <v>44950000</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>36650000</v>
+        <v>41650000</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>40150000</v>
+        <v>45150000</v>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
